--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data7.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data7.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.31093163523293144</v>
+        <v>0.31096858330410443</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8649170746672681</v>
+        <v>-0.8654311929324662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1569613983208649</v>
+        <v>0.15694806387753057</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08542888805443244</v>
+        <v>0.08537898030687405</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
